--- a/Örnek 37 - DÜŞEYARA.xlsx
+++ b/Örnek 37 - DÜŞEYARA.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A5F6D8-A12E-406C-A4A2-1480CA6E15A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E898D9BC-CFD1-4D96-ABA8-11D539316026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="36-düşey ara" sheetId="39" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>ali</t>
   </si>
@@ -172,12 +175,21 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -254,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -420,19 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -473,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,19 +516,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -915,12 +911,14 @@
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="19">
+        <v>20215070019</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="3:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
@@ -935,12 +933,14 @@
       <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="3:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
@@ -955,12 +955,14 @@
       <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="3:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
@@ -1063,22 +1065,35 @@
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="13">
-        <v>666</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>333</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f>VLOOKUP($C$18,$C$3:$F$15,2)</f>
+        <v>himmet</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f>VLOOKUP($C$18,$C$3:$F$15,3)</f>
+        <v>numan</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f>VLOOKUP($C$18,$C$3:$F$15,4)</f>
+        <v>hayriye</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="20" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
